--- a/L2/Задача 1.xlsx
+++ b/L2/Задача 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\Учёба\Знакомство с базами данных\L2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4B2AD5-B849-42B7-A744-F7F5A2BD5667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA2C179-8597-477B-82BC-DA726327285B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="3120" windowWidth="18150" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9690" yWindow="-15" windowWidth="18150" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>ФИО ученика</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Дата рождения</t>
   </si>
@@ -36,17 +33,123 @@
     <t>Класс</t>
   </si>
   <si>
-    <t>Место в классе (ряд, парта, вариант)</t>
-  </si>
-  <si>
-    <t>Статус по оценкам(отличник, ударник, троечник или двоечник)</t>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Заметки</t>
+  </si>
+  <si>
+    <t>Ряд</t>
+  </si>
+  <si>
+    <t>Парта</t>
+  </si>
+  <si>
+    <t>Вариант</t>
+  </si>
+  <si>
+    <t>Статус по оценкам</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>5А</t>
+  </si>
+  <si>
+    <t>Отличник</t>
+  </si>
+  <si>
+    <t>Активист класса</t>
+  </si>
+  <si>
+    <t>Живет с бабушкой</t>
+  </si>
+  <si>
+    <t>Гиперактивный на уроках</t>
+  </si>
+  <si>
+    <t>Хорошист</t>
+  </si>
+  <si>
+    <t>Троечник</t>
+  </si>
+  <si>
+    <t>6Б</t>
+  </si>
+  <si>
+    <t>1А</t>
+  </si>
+  <si>
+    <t>Семенова</t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>Алексеевна</t>
+  </si>
+  <si>
+    <t>Васечкин</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Иванович</t>
+  </si>
+  <si>
+    <t>ID ученика</t>
+  </si>
+  <si>
+    <t>ID места</t>
+  </si>
+  <si>
+    <t>Ученики</t>
+  </si>
+  <si>
+    <t>Места</t>
+  </si>
+  <si>
+    <t>вариант</t>
+  </si>
+  <si>
+    <t>1. Составить таблицы с данными по ученикам в школе. 
+Необходимые данные:
+● ФИО ученика 
+● год рождения 
+● класс 
+● место в классе (ряд, парта, вариант) 
+● статус по оценкам (отличник, ударник, троечник или двоечник) 
+● и другие данные, которые захочется хранить
+2. Далее выделить отдельно таблицу адреса и в ней отметить личные
+адреса учеников и адрес школы.
+Показать, что в таблице адреса могут принадлежать ученикам или
+школе/работе родителей и так далее. Адрес — это отдельная сущность.
+3. Выделить номер телефона в отдельную таблицу и добавить телефоны
+учеников и телефон школы.
+4*. Вместо таблицы “Ученик”, сделать таблицу “Люди” и добавить статус –
+ученик, учитель, родитель. Связать её с номерами телефона, адресами,
+кабинетами</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +157,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -86,14 +216,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -376,115 +586,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>40249</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4">
+        <v>39958</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4">
+        <v>42034</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>40249</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4">
+        <v>39958</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42034</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
